--- a/data/XDEW.xlsx
+++ b/data/XDEW.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="2025-02-27" sheetId="2" r:id="R9b8dec8e47054e23"/>
+    <x:sheet name="2025-02-27" sheetId="2" r:id="R031e7f9a43354d1e"/>
   </x:sheets>
 </x:workbook>
 </file>
